--- a/sveske/foo.xlsx
+++ b/sveske/foo.xlsx
@@ -414,16 +414,16 @@
         <v>43466</v>
       </c>
       <c r="B2">
-        <v>-0.09646371747133717</v>
+        <v>-0.6276133131896461</v>
       </c>
       <c r="C2">
-        <v>-0.8295196912742323</v>
+        <v>-0.4459274534988188</v>
       </c>
       <c r="D2">
-        <v>0.08569514756872315</v>
+        <v>0.8717938437701894</v>
       </c>
       <c r="E2">
-        <v>-1.294764067561861</v>
+        <v>0.8974681190405133</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -431,16 +431,16 @@
         <v>43467</v>
       </c>
       <c r="B3">
-        <v>-0.3098518553738225</v>
+        <v>0.5076846814442058</v>
       </c>
       <c r="C3">
-        <v>0.08375231693766154</v>
+        <v>-0.5401289588192734</v>
       </c>
       <c r="D3">
-        <v>0.4457778011696024</v>
+        <v>0.1091012546818218</v>
       </c>
       <c r="E3">
-        <v>0.7856613740110139</v>
+        <v>-0.8963758113965274</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -448,16 +448,16 @@
         <v>43468</v>
       </c>
       <c r="B4">
-        <v>-1.949710681999106</v>
+        <v>0.1730634771848394</v>
       </c>
       <c r="C4">
-        <v>-0.717340216075809</v>
+        <v>-1.038154318363503</v>
       </c>
       <c r="D4">
-        <v>-0.5137145819283575</v>
+        <v>0.4673636862366127</v>
       </c>
       <c r="E4">
-        <v>-0.1344811297743367</v>
+        <v>0.1329695382766372</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -465,16 +465,16 @@
         <v>43469</v>
       </c>
       <c r="B5">
-        <v>1.206362175134167</v>
+        <v>-1.089703658881763</v>
       </c>
       <c r="C5">
-        <v>-0.5209965526370876</v>
+        <v>-1.808709846571144</v>
       </c>
       <c r="D5">
-        <v>-1.011184711946591</v>
+        <v>1.845151132003699</v>
       </c>
       <c r="E5">
-        <v>-0.1015117188484889</v>
+        <v>-0.3755731037491872</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -482,16 +482,16 @@
         <v>43470</v>
       </c>
       <c r="B6">
-        <v>-1.804311180149452</v>
+        <v>0.4505795364351954</v>
       </c>
       <c r="C6">
-        <v>-0.7533813125787012</v>
+        <v>-0.4096613578137551</v>
       </c>
       <c r="D6">
-        <v>0.3817937651946588</v>
+        <v>0.4928045069473027</v>
       </c>
       <c r="E6">
-        <v>1.381703697072377</v>
+        <v>0.1554640461156361</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -499,16 +499,16 @@
         <v>43471</v>
       </c>
       <c r="B7">
-        <v>1.357070231575549</v>
+        <v>-0.8419973878201281</v>
       </c>
       <c r="C7">
-        <v>0.3868570412324847</v>
+        <v>0.9704276179342828</v>
       </c>
       <c r="D7">
-        <v>1.002911001292383</v>
+        <v>1.827315781362419</v>
       </c>
       <c r="E7">
-        <v>-1.413938630811986</v>
+        <v>-1.056557083563847</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -516,16 +516,16 @@
         <v>43472</v>
       </c>
       <c r="B8">
-        <v>-0.05449333776552619</v>
+        <v>-0.4523762965098911</v>
       </c>
       <c r="C8">
-        <v>-0.2757365034057315</v>
+        <v>-0.6872482386539498</v>
       </c>
       <c r="D8">
-        <v>0.77734848349924</v>
+        <v>0.1865016133155637</v>
       </c>
       <c r="E8">
-        <v>-0.1174204014505211</v>
+        <v>-1.195673266806127</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -533,16 +533,16 @@
         <v>43473</v>
       </c>
       <c r="B9">
-        <v>-0.3900008589386674</v>
+        <v>-1.221262538649529</v>
       </c>
       <c r="C9">
-        <v>-0.05089364638757268</v>
+        <v>0.03714686926270645</v>
       </c>
       <c r="D9">
-        <v>1.236984926947534</v>
+        <v>0.8305507489346244</v>
       </c>
       <c r="E9">
-        <v>-1.136036851045996</v>
+        <v>-0.2553970054265379</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -550,16 +550,16 @@
         <v>43474</v>
       </c>
       <c r="B10">
-        <v>-0.463108143873643</v>
+        <v>0.9419770201735644</v>
       </c>
       <c r="C10">
-        <v>-0.3514061651835597</v>
+        <v>-1.174813420587306</v>
       </c>
       <c r="D10">
-        <v>0.2674948698931078</v>
+        <v>0.3465273373201232</v>
       </c>
       <c r="E10">
-        <v>-0.06259436018510628</v>
+        <v>-1.120140276028206</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -567,16 +567,16 @@
         <v>43475</v>
       </c>
       <c r="B11">
-        <v>1.846056020892136</v>
+        <v>1.650162185313989</v>
       </c>
       <c r="C11">
-        <v>-0.5245347397259129</v>
+        <v>-0.3840461616239748</v>
       </c>
       <c r="D11">
-        <v>0.3456270364139649</v>
+        <v>-0.6261958995980118</v>
       </c>
       <c r="E11">
-        <v>0.1378343308188527</v>
+        <v>-0.5701247738647989</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -584,16 +584,16 @@
         <v>43476</v>
       </c>
       <c r="B12">
-        <v>-2.977546393642614</v>
+        <v>0.1966725146280944</v>
       </c>
       <c r="C12">
-        <v>-0.3529225116190003</v>
+        <v>2.060009324047977</v>
       </c>
       <c r="D12">
-        <v>0.4400093823295259</v>
+        <v>0.7026542818822283</v>
       </c>
       <c r="E12">
-        <v>0.3571978315930776</v>
+        <v>-1.648726547772205</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -601,16 +601,16 @@
         <v>43477</v>
       </c>
       <c r="B13">
-        <v>-0.7746537643990796</v>
+        <v>0.4500495101138368</v>
       </c>
       <c r="C13">
-        <v>1.576157396502224</v>
+        <v>-0.1285518015702048</v>
       </c>
       <c r="D13">
-        <v>-0.6344157983597815</v>
+        <v>0.03219190737946059</v>
       </c>
       <c r="E13">
-        <v>-1.004448818511249</v>
+        <v>0.5183744856476961</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -618,16 +618,16 @@
         <v>43478</v>
       </c>
       <c r="B14">
-        <v>0.9257014227022079</v>
+        <v>-0.6681486435278515</v>
       </c>
       <c r="C14">
-        <v>1.049869698064686</v>
+        <v>-1.157640064517637</v>
       </c>
       <c r="D14">
-        <v>0.3459029309344786</v>
+        <v>-0.9423271331706541</v>
       </c>
       <c r="E14">
-        <v>0.907170585392346</v>
+        <v>1.392221895842877</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -635,16 +635,16 @@
         <v>43479</v>
       </c>
       <c r="B15">
-        <v>0.996584451193017</v>
+        <v>1.149332409005374</v>
       </c>
       <c r="C15">
-        <v>-0.3545208972013442</v>
+        <v>0.3668301201525063</v>
       </c>
       <c r="D15">
-        <v>0.797551336291708</v>
+        <v>0.2482627087459707</v>
       </c>
       <c r="E15">
-        <v>-1.484832323513677</v>
+        <v>0.1446205376764163</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -652,16 +652,16 @@
         <v>43480</v>
       </c>
       <c r="B16">
-        <v>-0.6580899545868678</v>
+        <v>0.02317736231015766</v>
       </c>
       <c r="C16">
-        <v>1.572213184047246</v>
+        <v>-2.332123530693353</v>
       </c>
       <c r="D16">
-        <v>-0.09687218099916656</v>
+        <v>-1.257012140675669</v>
       </c>
       <c r="E16">
-        <v>1.63445696193551</v>
+        <v>-0.1981129993454204</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -669,16 +669,16 @@
         <v>43481</v>
       </c>
       <c r="B17">
-        <v>-0.8859412354956955</v>
+        <v>0.3765271834365089</v>
       </c>
       <c r="C17">
-        <v>0.3578961727506817</v>
+        <v>-0.5391964501914926</v>
       </c>
       <c r="D17">
-        <v>-0.02218142503133442</v>
+        <v>-0.4298906123447059</v>
       </c>
       <c r="E17">
-        <v>-0.7369178105095684</v>
+        <v>0.6173969708693927</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -686,16 +686,16 @@
         <v>43482</v>
       </c>
       <c r="B18">
-        <v>1.508913027139114</v>
+        <v>0.1400666997943721</v>
       </c>
       <c r="C18">
-        <v>1.58373336693903</v>
+        <v>-0.3555722969815808</v>
       </c>
       <c r="D18">
-        <v>-0.3808313090026081</v>
+        <v>1.085066187192396</v>
       </c>
       <c r="E18">
-        <v>0.4939614910676003</v>
+        <v>-0.7902960136148581</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -703,16 +703,16 @@
         <v>43483</v>
       </c>
       <c r="B19">
-        <v>0.04519488792703979</v>
+        <v>0.7135744299567495</v>
       </c>
       <c r="C19">
-        <v>0.5198622970070315</v>
+        <v>-0.9100808926652606</v>
       </c>
       <c r="D19">
-        <v>-0.2636307475672061</v>
+        <v>1.496079638537583</v>
       </c>
       <c r="E19">
-        <v>-0.07414216709614699</v>
+        <v>0.5265785064612674</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -720,16 +720,16 @@
         <v>43484</v>
       </c>
       <c r="B20">
-        <v>1.516095728272852</v>
+        <v>-0.5334788032002041</v>
       </c>
       <c r="C20">
-        <v>-1.132204989714537</v>
+        <v>0.8637998861758487</v>
       </c>
       <c r="D20">
-        <v>1.018264866293123</v>
+        <v>-0.1623785151223314</v>
       </c>
       <c r="E20">
-        <v>-1.032009786196598</v>
+        <v>-1.3179508891326</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -737,16 +737,16 @@
         <v>43485</v>
       </c>
       <c r="B21">
-        <v>0.5455549203697829</v>
+        <v>0.6696006701760792</v>
       </c>
       <c r="C21">
-        <v>-0.1323667391766753</v>
+        <v>0.7495911364648034</v>
       </c>
       <c r="D21">
-        <v>-1.022806547757371</v>
+        <v>1.260342744784559</v>
       </c>
       <c r="E21">
-        <v>2.056743864007186</v>
+        <v>-0.2627831754353701</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -754,16 +754,16 @@
         <v>43486</v>
       </c>
       <c r="B22">
-        <v>0.6163848111492763</v>
+        <v>0.3314146964494493</v>
       </c>
       <c r="C22">
-        <v>-0.008366751850098776</v>
+        <v>-0.6137264545364569</v>
       </c>
       <c r="D22">
-        <v>-0.5058594870488603</v>
+        <v>-0.6331753332882654</v>
       </c>
       <c r="E22">
-        <v>-0.7753705401059725</v>
+        <v>-1.025253304269802</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -771,16 +771,16 @@
         <v>43487</v>
       </c>
       <c r="B23">
-        <v>-1.921173840054458</v>
+        <v>0.1177713473214838</v>
       </c>
       <c r="C23">
-        <v>0.2998814045617473</v>
+        <v>0.9514874628103437</v>
       </c>
       <c r="D23">
-        <v>0.4522964159646007</v>
+        <v>-1.902764278271593</v>
       </c>
       <c r="E23">
-        <v>0.7330377084573552</v>
+        <v>0.04143984616475543</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -788,16 +788,16 @@
         <v>43488</v>
       </c>
       <c r="B24">
-        <v>1.67111261335162</v>
+        <v>0.8579787704549539</v>
       </c>
       <c r="C24">
-        <v>-0.1499293947255726</v>
+        <v>-0.2384031507575605</v>
       </c>
       <c r="D24">
-        <v>-0.4347000288901945</v>
+        <v>-0.2362058305072698</v>
       </c>
       <c r="E24">
-        <v>-0.2801096943808728</v>
+        <v>1.232677600949778</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -805,16 +805,16 @@
         <v>43489</v>
       </c>
       <c r="B25">
-        <v>0.1770372203837343</v>
+        <v>-0.2320312812355289</v>
       </c>
       <c r="C25">
-        <v>-0.6772831839682941</v>
+        <v>-0.4164590588900647</v>
       </c>
       <c r="D25">
-        <v>-0.8382255051998299</v>
+        <v>0.5494902127595573</v>
       </c>
       <c r="E25">
-        <v>-1.72702195443429</v>
+        <v>-1.254830440019307</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -822,16 +822,16 @@
         <v>43490</v>
       </c>
       <c r="B26">
-        <v>0.4839363892614565</v>
+        <v>-0.1066743931177541</v>
       </c>
       <c r="C26">
-        <v>-0.2628286494542202</v>
+        <v>0.3281080077434776</v>
       </c>
       <c r="D26">
-        <v>-0.7689296378998972</v>
+        <v>-1.503292662655384</v>
       </c>
       <c r="E26">
-        <v>0.5678000863266577</v>
+        <v>-0.3432910538711816</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -839,16 +839,16 @@
         <v>43491</v>
       </c>
       <c r="B27">
-        <v>-0.008623224596054854</v>
+        <v>1.685216550735884</v>
       </c>
       <c r="C27">
-        <v>0.3841626912138737</v>
+        <v>-1.931621861025494</v>
       </c>
       <c r="D27">
-        <v>-0.6942739843439866</v>
+        <v>0.3982933554932297</v>
       </c>
       <c r="E27">
-        <v>1.096443692973977</v>
+        <v>0.2429795413497946</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -856,16 +856,16 @@
         <v>43492</v>
       </c>
       <c r="B28">
-        <v>0.1133457206319355</v>
+        <v>0.438649785618498</v>
       </c>
       <c r="C28">
-        <v>-0.0517958896149911</v>
+        <v>0.6965339871816543</v>
       </c>
       <c r="D28">
-        <v>0.6714077885995575</v>
+        <v>-1.065844480624839</v>
       </c>
       <c r="E28">
-        <v>-0.3039738288094171</v>
+        <v>-0.6655833675655221</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -873,16 +873,16 @@
         <v>43493</v>
       </c>
       <c r="B29">
-        <v>-0.0873874840452778</v>
+        <v>0.9141882748822803</v>
       </c>
       <c r="C29">
-        <v>0.7559642223917198</v>
+        <v>0.01672749288808258</v>
       </c>
       <c r="D29">
-        <v>2.169586839236839</v>
+        <v>-1.102307435055013</v>
       </c>
       <c r="E29">
-        <v>0.2059956607542121</v>
+        <v>0.3862793884261201</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -890,16 +890,16 @@
         <v>43494</v>
       </c>
       <c r="B30">
-        <v>-0.6426810104570887</v>
+        <v>0.4071037487614632</v>
       </c>
       <c r="C30">
-        <v>0.3887870360037167</v>
+        <v>-0.2423731493006852</v>
       </c>
       <c r="D30">
-        <v>-0.8348645631523578</v>
+        <v>0.9254364317523415</v>
       </c>
       <c r="E30">
-        <v>0.08690199866859384</v>
+        <v>-0.8187116080048398</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -907,16 +907,16 @@
         <v>43495</v>
       </c>
       <c r="B31">
-        <v>0.4797007990022504</v>
+        <v>-1.978533723074841</v>
       </c>
       <c r="C31">
-        <v>0.05710803581897224</v>
+        <v>-0.2536740763409518</v>
       </c>
       <c r="D31">
-        <v>0.907937712534585</v>
+        <v>0.4003412260906622</v>
       </c>
       <c r="E31">
-        <v>-0.3935148736878518</v>
+        <v>-0.4572147979965535</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -924,16 +924,16 @@
         <v>43496</v>
       </c>
       <c r="B32">
-        <v>-1.550651014841441</v>
+        <v>-1.286895601643563</v>
       </c>
       <c r="C32">
-        <v>-0.3981272300931954</v>
+        <v>0.6287029576424934</v>
       </c>
       <c r="D32">
-        <v>-0.05799682149639095</v>
+        <v>1.408376891754048</v>
       </c>
       <c r="E32">
-        <v>-0.7619975591173458</v>
+        <v>0.9834537822235928</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -941,16 +941,16 @@
         <v>43497</v>
       </c>
       <c r="B33">
-        <v>-2.278938115847914</v>
+        <v>-1.188595748646797</v>
       </c>
       <c r="C33">
-        <v>0.007384721273278749</v>
+        <v>-0.7581956734823775</v>
       </c>
       <c r="D33">
-        <v>0.4226835552598909</v>
+        <v>-0.3025309985353274</v>
       </c>
       <c r="E33">
-        <v>0.3846591276044881</v>
+        <v>-0.5283067823999025</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -958,16 +958,16 @@
         <v>43498</v>
       </c>
       <c r="B34">
-        <v>0.1931540355898854</v>
+        <v>-0.9690207950907505</v>
       </c>
       <c r="C34">
-        <v>0.786569040466367</v>
+        <v>0.2137244781167612</v>
       </c>
       <c r="D34">
-        <v>-1.099582960089974</v>
+        <v>1.160045087856209</v>
       </c>
       <c r="E34">
-        <v>-0.7753600786036722</v>
+        <v>-1.864104795645996</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -975,16 +975,16 @@
         <v>43499</v>
       </c>
       <c r="B35">
-        <v>-1.654524235333653</v>
+        <v>-0.05403305067486198</v>
       </c>
       <c r="C35">
-        <v>-1.972764979949099</v>
+        <v>-0.8335234011510543</v>
       </c>
       <c r="D35">
-        <v>-1.006612307473784</v>
+        <v>-0.5162681132099982</v>
       </c>
       <c r="E35">
-        <v>-0.8898831111493662</v>
+        <v>0.9346445729463513</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -992,16 +992,16 @@
         <v>43500</v>
       </c>
       <c r="B36">
-        <v>0.08580817056383473</v>
+        <v>-1.142850959381734</v>
       </c>
       <c r="C36">
-        <v>0.1990773294722262</v>
+        <v>1.407645623113173</v>
       </c>
       <c r="D36">
-        <v>0.8604744900998017</v>
+        <v>-1.251123939298766</v>
       </c>
       <c r="E36">
-        <v>-1.728250934213216</v>
+        <v>2.281600207582931</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1009,16 +1009,16 @@
         <v>43501</v>
       </c>
       <c r="B37">
-        <v>0.1369452754682681</v>
+        <v>-0.7473361068509735</v>
       </c>
       <c r="C37">
-        <v>-0.218530432365823</v>
+        <v>0.2101776700574968</v>
       </c>
       <c r="D37">
-        <v>-0.4761588152183586</v>
+        <v>2.361115158961687</v>
       </c>
       <c r="E37">
-        <v>-0.6201774997260934</v>
+        <v>-0.2269154852474619</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1026,16 +1026,16 @@
         <v>43502</v>
       </c>
       <c r="B38">
-        <v>3.074308057626089</v>
+        <v>-0.6619922130197413</v>
       </c>
       <c r="C38">
-        <v>-0.5309739874293476</v>
+        <v>1.470671638386541</v>
       </c>
       <c r="D38">
-        <v>-0.6094628224983036</v>
+        <v>-0.4478051976532689</v>
       </c>
       <c r="E38">
-        <v>0.3291567331921755</v>
+        <v>-0.3794917080650186</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1043,16 +1043,16 @@
         <v>43503</v>
       </c>
       <c r="B39">
-        <v>0.654902366954785</v>
+        <v>1.623415180348279</v>
       </c>
       <c r="C39">
-        <v>-0.1930737702987213</v>
+        <v>-0.01477507750587482</v>
       </c>
       <c r="D39">
-        <v>2.134470910235871</v>
+        <v>0.05859870171867392</v>
       </c>
       <c r="E39">
-        <v>-0.5426793130721567</v>
+        <v>0.216543178395148</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1060,16 +1060,16 @@
         <v>43504</v>
       </c>
       <c r="B40">
-        <v>1.036261843815253</v>
+        <v>1.164203100970408</v>
       </c>
       <c r="C40">
-        <v>0.8877865324498587</v>
+        <v>-0.1310939797439846</v>
       </c>
       <c r="D40">
-        <v>0.5673637098281228</v>
+        <v>-1.733416311756886</v>
       </c>
       <c r="E40">
-        <v>-0.6657414876020797</v>
+        <v>2.069306527437636</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1077,16 +1077,16 @@
         <v>43505</v>
       </c>
       <c r="B41">
-        <v>0.4486960898662652</v>
+        <v>-2.159427902812212</v>
       </c>
       <c r="C41">
-        <v>-0.09342468818356892</v>
+        <v>0.6273682845113393</v>
       </c>
       <c r="D41">
-        <v>-1.101233201547143</v>
+        <v>1.636118701917979</v>
       </c>
       <c r="E41">
-        <v>-1.898314175478321</v>
+        <v>-1.018846996551452</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1094,16 +1094,16 @@
         <v>43506</v>
       </c>
       <c r="B42">
-        <v>-0.1144676695376082</v>
+        <v>0.8957069923850219</v>
       </c>
       <c r="C42">
-        <v>0.8517501321439557</v>
+        <v>0.07716566066478722</v>
       </c>
       <c r="D42">
-        <v>0.7386521151276008</v>
+        <v>1.76920791318596</v>
       </c>
       <c r="E42">
-        <v>-1.578757954653961</v>
+        <v>-1.018320394613779</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1111,16 +1111,16 @@
         <v>43507</v>
       </c>
       <c r="B43">
-        <v>0.9217096890315015</v>
+        <v>0.9905863238618956</v>
       </c>
       <c r="C43">
-        <v>0.9378392315370555</v>
+        <v>0.170400284627291</v>
       </c>
       <c r="D43">
-        <v>-1.151602432680986</v>
+        <v>-0.8977106032900525</v>
       </c>
       <c r="E43">
-        <v>0.1051164217205701</v>
+        <v>-0.4006097193002725</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1128,16 +1128,16 @@
         <v>43508</v>
       </c>
       <c r="B44">
-        <v>1.268524484352765</v>
+        <v>-0.9149435582505153</v>
       </c>
       <c r="C44">
-        <v>1.419471168723648</v>
+        <v>0.1556472184914805</v>
       </c>
       <c r="D44">
-        <v>-1.060125218601248</v>
+        <v>-0.6088065727576498</v>
       </c>
       <c r="E44">
-        <v>0.637093660620603</v>
+        <v>-0.9087421039369205</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1145,16 +1145,16 @@
         <v>43509</v>
       </c>
       <c r="B45">
-        <v>-1.151286641976204</v>
+        <v>0.6384809906106098</v>
       </c>
       <c r="C45">
-        <v>1.489110663547974</v>
+        <v>1.047181096380074</v>
       </c>
       <c r="D45">
-        <v>0.4188725996969475</v>
+        <v>-0.2748539803039944</v>
       </c>
       <c r="E45">
-        <v>-2.210279876112236</v>
+        <v>-0.3296383942696866</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1162,16 +1162,16 @@
         <v>43510</v>
       </c>
       <c r="B46">
-        <v>-0.2863233813226098</v>
+        <v>1.581232165746402</v>
       </c>
       <c r="C46">
-        <v>0.9700572237554742</v>
+        <v>-0.9580161681822527</v>
       </c>
       <c r="D46">
-        <v>-0.6625029518085797</v>
+        <v>-1.000016423613722</v>
       </c>
       <c r="E46">
-        <v>-0.02982473059640057</v>
+        <v>-0.1369917768531292</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1179,16 +1179,16 @@
         <v>43511</v>
       </c>
       <c r="B47">
-        <v>0.03631841371114405</v>
+        <v>0.1164993281404597</v>
       </c>
       <c r="C47">
-        <v>-1.034196748811056</v>
+        <v>0.04567873876469215</v>
       </c>
       <c r="D47">
-        <v>-0.2735994812341951</v>
+        <v>1.811189196244201</v>
       </c>
       <c r="E47">
-        <v>0.5708650885750879</v>
+        <v>-0.1866448944441673</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1196,16 +1196,16 @@
         <v>43512</v>
       </c>
       <c r="B48">
-        <v>-0.4953541645585455</v>
+        <v>-0.4347846386796503</v>
       </c>
       <c r="C48">
-        <v>0.3371277174916447</v>
+        <v>1.168468147629556</v>
       </c>
       <c r="D48">
-        <v>-0.9505028635670163</v>
+        <v>1.213000842124335</v>
       </c>
       <c r="E48">
-        <v>0.7116063450400983</v>
+        <v>0.1049602071623568</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1213,16 +1213,16 @@
         <v>43513</v>
       </c>
       <c r="B49">
-        <v>-1.695215102557977</v>
+        <v>-1.227161280021571</v>
       </c>
       <c r="C49">
-        <v>0.4587529710619015</v>
+        <v>-0.765769353686389</v>
       </c>
       <c r="D49">
-        <v>-0.5159817220734564</v>
+        <v>-1.409426606930854</v>
       </c>
       <c r="E49">
-        <v>-0.6767337006279383</v>
+        <v>-0.3344029256193001</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1230,16 +1230,16 @@
         <v>43514</v>
       </c>
       <c r="B50">
-        <v>0.2424221723942797</v>
+        <v>0.5351718880709192</v>
       </c>
       <c r="C50">
-        <v>-0.1092796580051081</v>
+        <v>0.9223309353906232</v>
       </c>
       <c r="D50">
-        <v>2.458019145944353</v>
+        <v>1.596024804754261</v>
       </c>
       <c r="E50">
-        <v>-0.4610864165448167</v>
+        <v>-1.811311088711716</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1247,16 +1247,16 @@
         <v>43515</v>
       </c>
       <c r="B51">
-        <v>0.6060663401030874</v>
+        <v>-1.291604268241493</v>
       </c>
       <c r="C51">
-        <v>-0.1386446571265411</v>
+        <v>-0.4146019464446993</v>
       </c>
       <c r="D51">
-        <v>-0.1560983686323602</v>
+        <v>-3.488612910895587</v>
       </c>
       <c r="E51">
-        <v>0.2962238510009052</v>
+        <v>0.4151338707350052</v>
       </c>
     </row>
   </sheetData>
